--- a/public/ejemplo.xlsx
+++ b/public/ejemplo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco.aguilar\Documents\WtspMsn\frontend\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pc 2026\Documents\WtspMsn\backend\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30A6873-9515-4CEF-9046-6EC8F85EC419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705C3BFB-C580-47E3-AEFA-8287A13F793D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0AF02A3A-4BD8-40FE-9D72-57F84F4B1A5D}"/>
+    <workbookView xWindow="25716" yWindow="876" windowWidth="17280" windowHeight="8832" xr2:uid="{0AF02A3A-4BD8-40FE-9D72-57F84F4B1A5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,15 +36,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Juan Perez</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Telefono</t>
   </si>
   <si>
     <t>Nombre</t>
+  </si>
+  <si>
+    <t>marco aguilar</t>
+  </si>
+  <si>
+    <t>Variable1</t>
+  </si>
+  <si>
+    <t>Variable2</t>
+  </si>
+  <si>
+    <t>Variable3</t>
   </si>
 </sst>
 </file>
@@ -104,7 +113,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -420,34 +429,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0BF301-53C2-43C9-990E-78E0E9A8029E}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.21875" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1796875" customWidth="1"/>
+    <col min="2" max="2" width="34.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>59175463858</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
